--- a/500all/speech_level/speeches_CHRG-114hhrg98219.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. We are going to call the hearing to order.    I want to thank everyone for the early start time, both from the agencies and my colleagues. As we know, Friday fly-out days are challenging for Members, so it is good to get started.    Just, also, a point of notice is that there are really two panels. This is the first panel of our hearing, and then we will have other stakeholders later on.    So, with that, I will recognize myself for an opening statement, 5 minutes.    I welcome today's witnesses, and thank you all for appearing to discuss protection from and cleanup of hazardous waste at Federal Government facilities. Today we will hear perspectives of the Department of Defense, the Department of Energy, the Environmental Protection Agency, and the Government Accountability Office.    Thousands of ordinary citizens in private-sector companies face the daily challenge of controlling costs and making a profit without leaving behind a trail of hazardous waste. The same citizens and companies must meet both Federal and State prevention and cleanup standards.    In meeting all these challenges, they face distinct disadvantages when compared with their Federal agency counterparts. One, they can't rely on the U.S. taxpayer to cover either their compliance or their cleanup costs. They also can't always choose their own remediation options. And they can't fall back on the defense of sovereign immunity when they are taken to court.    While those private-sector companies focus on making a profit while complying with the Environmental Protection Agency standards, the Defense and Energy Departments focus on national security. And national security can be a messy business, involving everything from motor oil to munitions waste. And even national security is no excuse for leaving a mess in your neighbor's backyard.    As we drill down into specifics on an agency-by-agency basis, we will learn that some of our Federal partners are more successful than others in juggling these dual responsibilities to their core mission and to protecting land and water. The agencies' challenges are not uniform, and neither are their budgets.    We have four objectives today. The first one is to get a detailed update on where agencies stand on meeting their good-neighbor obligations. The second one is to find out what the challenges are and how those challenges vary from agency to agency. The third one is to understand what the resource management relationship is between each of these agencies and the EPA. And, finally, to get GAO's perspective on who is doing a good job, who is not, and what they can do to improve.    Next week, a second panel for this hearing will provide the state perspective. Under our system of government, states have primary responsibility for protecting their own natural resources, including land and water, from environment degradation. But a state's challenge is made more difficult, if not impossible, to meet if the entity responsible for the environmental mess is a Federal agency, with all the power that status implies.    After the episode last month in Colorado with the release of contaminated water into the Animas River, I wouldn't be surprised if some in our audience thought first of EPA when they heard the phrase ``Federal agency responsible for an environmental mess,'' but the Colorado mine release is not the focus of this hearing.    Since we first got the news of the blowout, our committee has been looking into the Colorado mine incident on a separate track from this hearing. At the beginning, we had lots of questions and almost no answers. Gradually, we have been piecing together the facts as best we can. We are not finished yet. I trust our friend Mr. Stanislaus and everyone in the administration will cooperate with our committee as we pursue that inquiry.    Correct, Mr. Stanislaus?    And he shakes his head ``yes.''    Thank you.    Today I hope that we can focus on the Federal facilities issue and whether important agencies such as the Department of Defense and the Department of Energy are good neighbors and good stewards of the land and water that they touch wherever they have a presence.    I will now just end with--my background is also as a military officer, understanding national security and the challenges that face us. So the balancing of that and also being a good neighbor toward folks is very important to me, but I would also want to say I appreciate the work that the DOE and the Department of Defense does in protecting our citizens.    With that, I yield back my time and yield 5 minutes to the ranking member, Mr. Tonko.</t>
   </si>
   <si>
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair.    And good morning, and thank you to our witnesses for participating this morning.    And I thank the chair for holding a hearing on this very important topic.    Congress enacted the Comprehensive Environmental Response Compensation and Liability Act, commonly known as Superfund, some 35 years ago, but communities across the country are still dealing with the legacy of toxic waste. After a rough start, the Superfund program has had success in containing and cleaning up serious contamination problems in many of our communities, but there is still much work to do and too few dollars available to do it.    The good news is that sites are being cleaned up. When sites are cleaned up, the surrounding community benefits from a cleaner, healthier environment, and returning abandoned, contaminated land to productive use improves the local economy.    In addition to the sites on private or State land, there are many Superfund sites on Federal land. The Federal Government operates facilities across our country on millions of acres of land. Some of the Federal site contamination is due to the government's activities, but there are also many areas where mining, drilling, and industrial activities by private parties took place decades ago, leaving a legacy of contamination.    The Federal Government is subject to the Superfund law, and the government spends billions of dollars annually to clean up hazardous contamination at Federal facilities.    A few years ago, I asked the Government Accountability Office to look at the status of cleanup activities on Federal lands and to focus on the agencies and departments other than the Departments of Defense and Energy. These department sites are generally well known and have received considerable oversight and attention. The situation for the United States Department of Agriculture, the Department of the Interior, and other Federal agencies was less clear.    Under the Superfund law, Federal agencies are required to identify, assess, and clean up contamination on the properties that they administer, but cleanups cannot begin if sites have not been identified and characterized. As Mr. Gomez and his team found, this first crucial step has not been completed in the case of these other departments. And because of the nature of the sites on Department of Interior and Department of Agriculture lands and the limited budgets for these activities, it does not appear we will have a complete, reliable inventory in the near future.    We spend a lot of time these days worrying about how much the government is spending. I worry about that, as well, but I also worry about how we are distributing these dollars that we do spend. Across-the-board cuts and arbitrary caps are preventing us from doing some of our most important and difficult tasks: setting priorities and ensuring that we are providing funds to programs that deliver sustained benefits to our citizens. And returning contaminated land to productive use, preventing pollution migration, and reducing people's exposure to dangerous toxins certainly is a sustained benefit.    With the passage of Superfund, we made a commitment to identify and clean up contaminated properties. We should fulfill that commitment. I don't know that new legislation is required to do this. I do believe that additional oversight of this program, however, would be very useful. This hearing makes an important contribution to that effort.    Mr. Gomez, thank you and your team for your work on this issue. You have given us a lot to consider and provide some constructive recommendations.    I do appreciate the opportunity for the subcommittee to examine our Superfund program. The citizens living in communities with these sites are anxious, and they are anxious to have them cleaned up and returned to safe, productive use. The responsible parties, whether public or private, want to accomplish those cleanups in a cost-effective manner. These are goals that we can all support, so I do hope to work with you, Chairman Shimkus, and the other members of the subcommittee to achieve these goals.    And I thank all for participating in the hearing this morning and next week, and I look forward to your testimony on what is a very important issue.    With that, I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman and our ranking member, for calling this hearing on the Superfund program.    Superfund has been an incredibly important tool for protecting public health and the economy in my home State of New Jersey and throughout the country, and thousands of contaminated sites have been cleaned up and revitalized, including many former Federal sites.    As successful as Superfund has been, there is still so much important cleanup work to be done. I expect we will hear from today's panel about the staggering number of abandoned mine sites--just a subset of Federal sites and even smaller subset of contaminated sites nationwide. And I hope that my colleagues on this subcommittee will join me in working to ensure that EPA, other Federal agencies, state and local communities, have the resources needed to get these cleanups done.    Superfund sites are contaminated with toxic substances that can make their way into drinking-water wells, creeks and rivers, backyards, playgrounds, and streets. Communities impacted by these sites can face restrictions on water use and recreational activities as well as economic losses as property values decline due to contaminated land. In the worst cases, residents of these communities can face health problems such as cardiacimpacts, infertility, low birth weight, birth defects, leukemia, and respiratory difficulties.    The major environmental laws that are truly the powerful legacy of this committee have consistently held that polluters must pay for environmental harms. The principle is the heart of the Superfund program and should be preserved. For Federal facility cleanups, that means that we in Congress have a duty to ensure funds are appropriated to cover cleanup needs. For private facilities, that means we have a duty to reinstate the Superfund tax and stop charging taxpayers for cleanups.    In 1995, despite opposition from myself and other Democrats, a Republican Congress allowed the Superfund tax to expire. Before its expiration, the collected taxes were placed into a Superfund trust fund that was used for the cleanups of so-called orphan sites, where the party responsible for the pollution either no longer existed or could not afford the cost of the cleanup. The thousands of abandoned mines across the Western United States are examples of such sites. Without those revenues, important Superfund cleanups have been delayed, the backlog of sites needing cleanup has grown, and the costs have shifted to the taxpayers.    As many of you know, I have routinely introduced legislation, the Superfund Polluter Pays Act, which would replenish the Superfund trust fund by reinstituting the taxes that the oil and gas companies paid between 1980 and 1996. The legislation reinstates a 9.7-cents-a-barrel tax on petroleum, a tax on 42 chemicals, and a corporate environmental income tax of 12 percent on taxable income in excess of $2 million. This would help ensure that the EPA has sufficient funds available for the costs of investigation and cleanups of these toxic sites.    Reinstating this tax should be a part of any conversation we have in Congress about Superfund, but the tax itself is not enough. We need higher appropriations for Federal agencies with responsibility for cleanups, and we need financial responsibility requirements to stop the proliferation of abandoned mines and other orphan sites.    Under section 108 of Superfund, EPA has been working to establish such requirements for hard-rock mining and eventually for other polluting industries. Financial responsibility requirements would ensure that any company undertaking the dangerous practice has the resources necessary to cover the costs of anticipated cleanup needs.    Republicans have blocked these requirements in recent years through appropriation riders, a practice that I hope will stop in the wake of the Gold King Mine spill last month.    Removing public health hazards by cleaning up contaminated sites is incredibly important for the surrounding communities. Cleaning up toxic Superfund sites not only reduces human health risks, it helps create jobs during the cleanup and, through newly uncontaminated and productive land, makes it ready for redevelopment. So we should all support cleanup efforts and should ensure that those efforts are funded.    Again, I look forward to today's testimony. I thank both the chairman and Mr. Tonko for calling this hearing.    I yield back.</t>
   </si>
   <si>
@@ -88,36 +79,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Stanislaus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stanislaus. OK. Thank you.    Chairman Shimkus, Ranking Member Tonko, Congressman Pallone, and members of the subcommittee, I am Mathy Stanislaus, Assistant Administrator for the Office of Solid Waste and Emergency Response. And, again, thank you for inviting me here to talk about the Superfund program.    Specifically, I want to talk about the Federal facilities component of it, which is the focus of this hearing. The cleanup of Federal facilities is led by the Federal agencies who have delegated authority with properties under their responsibility, with the EPA having a discrete role, which I will get into in a second.    CERCLA section 120 provides a framework for identifying contaminated Federal facility sites, assessing actual or potential environmental risks from these sites, and assuring cleanup and other actions to protect public health and the environment. Under section 120, Federal facilities are required to comply with CERCLA in the same manner and to the same extent, both substantively and procedurally, as private entities.    Section 120 includes provisions and timetables that apply to Federal facilities only, including requiring the EPA to establish a Federal agency hazardous waste docket, requiring completion of a preliminary assessment by a Federal facility after docket listing, requiring a Federal agency to commence a remedial investigation and feasibility study within 6 months of that facility being placed on the National Priorities List, and requiring that the EPA and the Federal facility agency enter into an interagency agreement referred to as a Federal facility agreement at all NPL sites. Also, there are specific provisions that govern the transfer of Federal facilities to private entities.    Under Executive Order 12580, Federal agencies are designated as the lead agency for carrying out many of CERCLA's statutory requirements at their facilities. However, EPA retains the final decision authority over a small subset of these. These are National Priorities List sites. If the Federal agency and department and EPA are unable to reach agreement on the selection of remedial action at these NPL sites, the EPA's Administrator makes the final decision.    The shared responsibility of program implementation under CERCLA has unique challenges for EPA and other Federal agencies but has generally worked effectively. Currently, there are 157 final Federal facility sites on the NPL, and another 17 Federal sites have been deleted from the NPL. Approximately 80 percent of these 174 sites are DOD component sites.    The CERCLA framework has worked effectively for helping to ensure appropriate cleanup for more than 20 years. Moreover, because States are often parties to a Federal facility agreement and State laws and regulations may apply to State site cleanups, States and EPA work together to ensure that the NPL cleanups meet statutory requirements, protective of public health and the environment, and incorporate pertinent State requirements.    The EPA is engaging with other Federal departments and agencies on a range of activities to maintain and accelerate cleanup progress at Federal facilities. For example, we are working collaboratively with DOD on tools for advancing geophysical classification to allow for more accurate and efficient cleanup of munitions sites, a fairly significant issue; improving site-level data quality; and resolving technical issues associated with emerging contaminants.    Ensuring that people have environmental information about their communities is a top priority of my office. In 2010 and 2011 as part of ongoing efforts to enhance community engagement, my office reached out to diverse stakeholders through the Federal Facility Dialogue, as well as the Federal agencies represented here today. What we heard from stakeholders is that there is a need for more transparent and easily accessible information on cleanup progress and long-term protectiveness.    We have begun to move forward on some of these issues. For example, for the past 5 years, the EPA has led an interagency working group to make improvements to the 5-year review process that would force a greater transparency and participation from impacted communities. When wastes are left in place, EPA assesses whether remedies continue to be protective of public health and the environment through a 5-year review. And we are continuing to modernize the Federal Agency Hazardous Waste Compliance Docket and exploring ways to make the program data more accessible to communities and other stakeholders, as required by CERCLA.    In 2012, the EPA, in collaboration with other Federal agencies and departments, completed a Federal facilities site evaluation project. This project evaluated the disposition of 514 federally owned sites that EPA identified as potentially stalled in their progress. Through this process, EPA has been able to make an activity determination on 491 of the 514 sites on this list. Initiatives like this allow EPA to ensure the Federal facility information is up to date and communities have the most pertinent information on that site.    I will close, and look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you.    The chair now recognizes Mr. Mark Whitney, Principal Deputy Assistant Secretary for Environmental Management with the U.S. Department of Energy.    Sir, you are welcome. You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Whitney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whitney. Thank you, and good morning, Chairman Shimkus, Ranking Member Tonko, and members of the subcommittee. I am pleased to be here today to represent the Department of Energy's Office of Environmental Management and to discuss the Comprehensive Environmental Response, Compensation, and Liability Act.    The Environmental Management program was established in 1989 with the mission to clean up the largest and most complex nuclear waste sites in the world as safely, effectively, and quickly as possible. This involves some of the most dangerous materials known to humankind, and it is no simple task. But the EM has completed cleanup activities at the 91 sites across 30 States since their inception, leaving the remaining cleanup work at 16 sites in 11 States. That is approximately $150 billion worth of cleanup work completed since the inception of the program.    Sites like Fernald in Ohio and Rocky Flats in Colorado have been cleaned up and are now wildlife preserves. We have decommissioned and demolished more than 2 million square feet of excess facilities and removed all EM special nuclear material from the Idaho National Laboratory. We produced nearly 4,200 cannisters of vitrified high-level waste at Savannah River site and the West Valley sites combined, and we have closed 6 underground storage tanks at the Savannah River site. We demolished the K-25 building at the Oak Ridge site, which was once the largest building under a single roof in the would.    The Federal Government's investment in EM is resulting in safe and secure nuclear waste and reduced risk to the American people and environment.    One of the great success stories of the program is the cleanup of the Rocky Flats site, which is listed on the National Priorities List, and cleanup was guided by a tri-party interagency agreement. In October 2005, EM completed the cleanup significantly under estimated cost and schedule.    A number of factors were important contributors to the success of the Rocky Flats cleanup, including a collaborative working relationship with the regulators, both the State regulators and Environmental Protection Agency; an incentivized and motivated management and operations contractor; consistent and reliable budget appropriations; a closure managed as a finite project; involved stakeholders; and engaged workers and public.    The Department has a balanced approach under the regulatory frameworks of the applicable environmental regulations, including CERCLA, also the Resource Conservation Recovery Act, or RCRA, the Atomic Energy Act, and the National Environmental Policy Act. And this guides and directs our cleanup actions.    EM continues to pursue its cleanup objectives safely within a framework of regulatory compliance, and the Department has 19 sites currently listed on the EPA's National Priorities List. EM is responsible for the cleanup of 11 DOE NPL sites which are located across 7 states.    Under CERCLA, EPA oversees the Department's cleanup actions at NPL sites, and, although States are not a delegated authority for oversight of DOE's NPL site cleanup under CERCLA, State regulators are active participants in the CERCLA process. We work with EPA in the States to determine site priorities, evaluate cleanup approaches, develop a schedule for cleanup activities, and specify the requirements the site cleanup actions and activity must meet.    These collaborative decisions are memorialized as binding commitments in a Federal Facility Agreement or a tri-party agreement between the state, EPA, and DOE. And these regulatory frameworks set cleanup standards and govern our cleanup activities. Generally, cleanup levels are directly tied to the expected future land uses of our sites. We have nearly 40 agreements at the 16 sites where we are working.    Largely EM has had success working with state regulators when it comes to negotiating, updating, and improving compliance agreements. Our site office have weekly, often daily, interactions with our regulators, state and EPA, to keep them apprised of site activities.    We also currently have one Federal Advisory Committee Act-chartered Site-Specific Advisory Board, with eight local advisory boards organized under that umbrella. Members of these advisory boards include people directly affected by site cleanup activities, such as stakeholders from local governments, tribal nations, environmental and civic groups, labor organizations, universities, industries, and other interested parties and citizens.    A collaborative relationship with state and Federal regulators and the public is essential to successfully completing our cleanup at our sites.    In addition to the collaborative relationships with regulators and stakeholders, there is also a need for continued investment in research and development for our program. We believe through strengthening the scientific basis for decisionmaking, the improvement in the effectiveness of cleanup technologies, as well as development of new technologies that address difficult and one-of-a-kind, unique issues and challenges, it is our hope that costs and project timelines can be reduced.    Mr. Chairman, Ranking Member Tonko, and members of the subcommittee, I am again honored to be here today representing the Office of Environmental Management. I appreciate your interest in our work, and I appreciate the funding provided by Congress for EM each year.    We are committed to achieving our mission within a framework of regulatory compliance and will continue to comply innovative environmental cleanup strategies and to complete our work safely and efficiently, thereby demonstrating value to the American taxpayers.    Mr. Chairman, I know you have had the opportunity in the past to visit the Savannah River site fairly recently and get a firsthand look at the magnitude and the challenges that we face on a day-to-day basis in implementing our cleanup work at our sites.    I would invite and encourage every member of the subcommittee to visit our sites and would be happy to assist in arranging tours and those visits as appropriate.    With that, I am pleased to answer any questions as we move forward that you may have. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    Next, I would like to recognize Mr. John Conger, performing the duties of the Assistant Secretary of Defense, Energy, Installations, and Environment, U.S. Department of Defense.    You are recognized for 5 minutes, and welcome.</t>
   </si>
   <si>
-    <t>Conger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conger. Thank you, Mr. Chairman. Good morning.    Chairman Shimkus, Ranking Member Tonko, distinguished members of the subcommittee, thank you for the opportunity to discuss the Department of Defense's cleanup activities and the progress we have made to date.    The Department has long made it a priority to protect the environment. From a mission perspective, we want to ensure that we have the land, water, and air space that we need for military readiness. Moreover, we must protect the health of the military and civilian personnel and their families who live and work on our bases, to ensure our operations don't affect the health and environment of surrounding communities, and to preserve resources for future generations.    While we are here to talk about cleanup of past contamination, I want to emphasize that we are committed to rigorously complying with current laws to minimize new contamination. Our funding requests, our strong relationships with Federal, state, and local stakeholders, and our continued progress reflect that commitment.    The Department of Defense is responsible for approximately 39,000 cleanup sites across hundreds of active and closed bases. And, if I could, I have heard the term ``site'' used by other witnesses, and I think they use it differently than I do. I am talking about specific instances of pollution. Multiple sites can occur on a single installation. So I think the numbers that I have heard earlier reflect that an entire installation would be a single site, and we break it out differently. But, in any case, 39,000 cleanup sites across hundreds of installations.    In order to make the most impact, we continually reassess DOD's cleanup program to ensure that we address the highest-risk sites first, a process we conduct in collaboration with EPA and with the States. At the same time, we are committed to completing cleanup or achieving ``response complete'' and ``no further action required'' at all of our sites.    We appreciate Congress' support for the roughly billion-and-a-half dollars a year we spend on cleanup. At this point, more than 80 percent of our 39,000 sites have reached ``response complete.'' I am proud to say that we remain on track to meet our internally set goals of 90 percent ``response complete'' by the end of 2018 and 95 percent by the end of 2021.    None of our successes would have been possible without investments in groundbreaking research and development in environmental technology. These are aimed at tackling our most difficult cleanups. Recent successes include bioremediation techniques for groundwater cleanup and detection technology to help find buried munitions. We are beginning to focus our R&amp;D on capabilities needed to accelerate cleanup of the complex sites that will remain after we achieve our 2021 goals.    Finally, I would like to highlight the contributions of our state, local, and Federal partners. State and local stakeholders help us to develop site management plans, play an active role in remedy selection, and have important oversight responsibilities. To that end, we have established three high-level working groups and approximately 200 restoration advisory boards for local input to provide forums for local communities, state regulators, and other Federal regulators to discuss cleanup issues and concerns with us.    We are also committed to interagency efforts. For example, my staff and senior leaders from the three military components meet with EPA headquarters staff quarterly to ensure our programs are on track and moving forward.    In conclusion, our focus remains on continuous improvement in the restoration program. We have been identifying cleanup sites since the 1970s and have come a long way. Still, we are fully aware of the magnitude of our mission, and we look forward to continuing our partnerships and making smart investments in technology to meet our outlined goals.    Thank you again for the opportunity to testify today, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much. And, again, we welcome you here.    Now, Mr. Alfredo Gomez, no stranger to this committee, Director of Natural Resources and the Environment at the U.S. Government Accountability Office.    Welcome. You have 5 minutes.</t>
   </si>
   <si>
-    <t>Gomez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gomez. Thank you, Mr. Chairman.    Chairman Shimkus, Ranking Member Tonko, and members of the subcommittee, good morning. I am pleased to be here today to discuss our work on hazardous waste cleanup at Federal facilities.    The Federal Government owns over 700 million acres of land. Some of this land is managed by the Departments of Agriculture, Interior, Defense, and Energy and is contaminated with hazardous waste that poses serious risks to human health and the environment. The cleanup of these sites can require substantial time and expense, as you have heard already.    In response, Congress passed CERCLA, also known as Superfund, which requires owners and operators of hazardous waste to notify the Environmental Protection Agency of the existence of their potentially contaminated facilities. Based on the risks a site poses, EPA may place the site on the National Priorities List, a list that includes some of the Nation's most seriously contaminated sites. As of September this year, there are 158 Federal sites on the list.    My statement today summarizes the results of several reports on the topic. I will talk about three key points: first, the number of contaminated and potentially contaminated Federal sites for the four departments; two, spending on and estimates of future costs for cleanup at these sites; and three, EPA's role in maintaining the list of contaminated and potentially contaminated Federal sites and ensuring that preliminary assessments of such sites are complete.    The first point is that, while the four departments have identified thousands of contaminated and potentially contaminated sites, they do not have a complete inventory of sites, in particular for abandoned mines.    Specifically, while the U.S. Department of Agriculture had identified over 1,400 contaminated sites and many potentially contaminated sites, the Department did not have a reliable centralized site inventory for abandoned mines. The Department's Forest Service estimated that there were from 27,000 to 39,000 abandoned mines on its land. The Department of the Interior had an inventory of 4,722 sites with confirmed or likely contamination. However the Department's Bureau of Land Management had identified over 30,000 abandoned mines that were not yet assessed for contamination, and this inventory was not complete.    The Department of Defense reported to Congress in June of 2014 that it had 38,804 sites in its inventory of sites with contamination. The Department had the greatest number of sites on the National Priorities List. The Department of Energy reported that it had 16 sites in 11 States with contamination, and, as you have heard already, the Department is responsible for one of the world's largest environmental cleanup programs.    Second, with regards to the cost of cleanup at these sites, the four departments reported allocating and spending millions of dollars annually on environmental cleanup, and an estimated future cost in the hundreds of millions of dollars or more in environmental liabilities.    For example, the Department of the Interior allocated for fiscal year 2013 about $13 million for environmental cleanup efforts and reported $192 million in environmental liabilities. The Department of Energy received an annual appropriation of about $5.9 billion in fiscal year 2015 to support cleanup activities, and, in 2014, the Department estimated its total liability for environmental cleanup at almost $300 billion.    Third, as of August 2015, EPA had compiled a docket of over 2,300 Federal sites that may pose a risk to human health and the environment. EPA has noted that it is difficult to know about a site if the agencies have not reported it. EPA is also responsible for ensuring that Federal agencies assess the sites for contamination and has established 18 months as a reasonable timeframe for agencies to complete preliminary assessments. However, some agencies may take 2 or 3 years to complete an assessment.    So, in summary, there are thousands of contaminated sites, and the list is not complete. The four departments have spent millions annually for cleanup and have estimated future costs in the billions of dollars. And, lastly, EPA has compiled a docket of over 2,300 Federal sites that may pose a risk to human health and the environment.    Mr. Chairman, Ranking Member Tonko, members of the subcommittee, that concludes my statement, and I would be happy to respond to questions.</t>
   </si>
   <si>
@@ -235,9 +214,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman.    And thanks to each of you for being here.    And I am just curious, Mr. Stanislaus, how many times have you now testified before a committee or subcommittee?</t>
   </si>
   <si>
@@ -373,9 +349,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Well, thank you, Mr. Chairman.    And to our panel, thanks very much for being here.    If I could start with you, Mr. Stanislaus, since I guess you have won the record as being here the most, so I will start with the questions.    Do you believe that current and formerly owned Federal facilities should have to comply with the same state requirements as a private entity conducting a cleanup under </t>
   </si>
   <si>
@@ -451,9 +424,6 @@
     <t>412315</t>
   </si>
   <si>
-    <t>Kurt Schrader</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schrader. Thank you, Mr. Chairman.    Mr. Stanislaus, I would like to kind of move--in our area, one of the biggest sites we have to deal with is the Portland Harbor as a Superfund site. And defense industry, big partner in contaminating that during World War II and now not so much of a partner in cleaning the thing up at the end of the day, for a lot of the reasons that have been mentioned here.    But I am concerned about EPA's approach to that harbor. You have a number of businesses that have stepped up, formed this Lower Willamette Group, trying to figure out a way to actually clean this up or be a partner in cleaning it up without the Federal Government, frankly, at this stage of the game. And I am worried about the science that is involved in this.    And, particularly, I guess I wanted to know from you, is it common practice to a qualitative and not a quantitative analysis of the cleanup alternatives?</t>
   </si>
   <si>
@@ -502,9 +472,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    And I want to thank the panel for being here.    Mr. Stanislaus, I was thinking earlier, as we were talking about how many times you have testified, if this were baseball, your number of at-bats and your own base percentage would be one of the highest in the league. So I commend you for continuing to step into the batter's box. I know these are tough issues.    Mr. Whitney, I represent many of the hardworking people that are helping to clean up the former Portsmouth Gaseous Diffusion Plant in Piketon, Ohio, and many others who are dependent upon that work getting done so that they can reindustrialize that site and make it a productive, job-creating site for the people that live there.    I am shocked that the Department of Energy has now extended the deadline or the timeline for completing that cleanup approximately another 30 years. It makes absolutely no sense to me. The people who the commitments were made to, many of them could possibly be dead by the time the Department of Energy gets done doing what they committed to do.    And it is very unfortunate that, for the third year in a row, jobs are at risk because the administration has failed to request adequate funding to complete this work. The Ohio delegation has repeatedly urged the administration to present a fully funded, comprehensive plan for decontamination and decommissioning activities at the site.    Unfortunately, financial instability continues year after year. Back in May, the House of Representatives approved full funding, $213 million, for D&amp;D operations, which surpassed the administration's request by $48 million, and yet we see this dragging-out process again.    We are ready to work with the administration and you folks again this year on funding, but we got to have a willing partner here and a commitment on the part of DOE to move this project forward and meet the commitment, stand up and honor the promises that were made to the people of southern Ohio.    So, with that said, what are DOE's plans to address this issue?</t>
   </si>
   <si>
@@ -538,9 +505,6 @@
     <t>400101</t>
   </si>
   <si>
-    <t>Diana DeGette</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. DeGette. Thank you, Mr. Chairman.    Thanks, everybody, for coming today.    As you know, in Colorado, we not only have contaminated Federal munitions and chemical sites, but we also have legacy mines on Federal lands. And there are often questions of liability regarding the abandoned mine lands since many companies might have had those properties over the course of decades.    Of course, a prime example of this is the Gold King Mine, which we saw this summer. And you all saw this on the national news. This is what the Gold King Mine looked--this is what the Animas River looked like. Why those people are kayaking there I don't know. But the Animas River was orange as it flowed down through Durango and down into New Mexico, and Cement Creek was also turned orange.    So this is kind of the backdrop for the questions that I am going to be asking today.    I want to ask you, Mr. Stanislaus, if the EPA is going to be pursuing reimbursement from the companies that left these millions of gallons of contaminated water at Gold King Mine to pay for the remediation of the site.</t>
   </si>
   <si>
@@ -658,9 +622,6 @@
     <t>412550</t>
   </si>
   <si>
-    <t>Richard Hudson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hudson. Thank you, Mr. Chairman.    And I would like to thank the witnesses for being here today. Really appreciate your testimony. It has been very informative and helpful for me to understand this process.    I would like to start with Mr. Conger.    What percentage of DOD's hazardous waste facilities have been identified on the Federal Facilities Hazardous Waste Compliance Docket as required in CERCLA?</t>
   </si>
   <si>
@@ -769,9 +730,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman and Ranking Member, for holding the hearing on Superfund today.    I represent a district in Houston, and, up until recent redistricting, my district bordered in east Harris County one of the more significant Superfund sites, on the San Jacinto waste pits bordering our district. At that time, Congressman Poe had the site, but I got the downstream.    And EPA was very quick in putting it on the Superfund site. The site has been polluted since the mid-1960s. It was a dumping ground for paper mill waste, and it was left undetected for over 40 years. The local community is very concerned about the fears it may negatively be impacting human health and the environment.    My questions are, Mr. Stanislaus, what opportunities will communities in east Harris County have to give input on the proposed cleanup plans?</t>
   </si>
   <si>
@@ -847,27 +805,18 @@
     <t xml:space="preserve">    The subcommittee met, pursuant to call, at 4:04 p.m., in room 2322, Rayburn House Office Building, Hon. John Shimkus, (chairman of the subcommittee) presiding.    Present: Representatives Shimkus, Harper, Pitts, Murphy, Latta, McKinley, Bucshon, Tonko, and Pallone (ex officio).    Staff Present: Will Batson, Legislative Clerk; David McCarthy, Chief Counsel, Environment and Economy; Tina Richards, Counsel, Environment; Chris Santini, Policy Coordinator, O&amp;I; Chris Sarley, Policy Coordinator, Environment and Economy; Dan Schneider, Press Secretary; Dylan Vorbach, Staff Assistant; Jacqueline Cohen, Minority Senior Counsel; and Alexander Ratner, Minority Policy Analyst.    Mr. Shimkus. We are going to call the hearing back to order. This is the second day and the second panel of a hearing that we started on Friday.    We are glad to have you here. So all the opening statements have been done, so you don't have to listen to that.    I will introduce you individually. You will have 5 minutes for your opening statement, and then your official statement is filed in the record already. And then we will go to questions. So thanks for coming.    OK. So first we have Ms. Elizabeth Dieck, director of environmental affairs for the South Carolina Department of Health and Environmental Control, on behalf of ECOS, Environmental Council of the States, who have become good friends of mine.    And we are glad that you are here. Welcome. You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Dieck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Dieck. Thank you.    Chairman Shimkus, Ranking Member Tonko, and members of the subcommittee, good afternoon. My name is Elizabeth Dieck, and I am here today in my capacity as secretary/treasurer of ECOS, whose members are the leaders of the state and territorial environmental protection agencies. I serve as the director of environmental affairs for the South Carolina Department of Health and Environmental Control.    I appreciate the opportunity to share with you the states' views on the progress of cleanup of contaminated Federal facilities and what solutions may help address the related challenges.    ECOS commends the subcommittee for holding these hearings on the state of Federal facility cleanups in our Nation. Your attention to these sites is relevant to nearly every state and territory in our Nation where contaminated sites exist on lands managed by Federal agencies such as the U.S. Department of Defense, Department of Energy, Department of Agriculture, and the Department of the Interior.    Your oversight of these cleanups, the resources being devoted to them, and the legislative actions that can be taken to advance cleanup progress is critical, as all Americans have a collective interest in seeing the hundreds of millions of dollars we allocate to these sites annually yield the most effective results.    State environmental regulators are involved in every stage of the cleanup process, from identifying and reporting sites to staffing and overseeing cleanup efforts. We are on the front lines of answering questions from our citizens about the risks these sites may pose to their health and welfare, the scope of the contamination, the status of the cleanup progress, and the management of waste streams from building debris to more hazardous waste.    We share with you and our Federal partners a priority interest in responding to these complex sites as expeditiously as possible and, when we can, returning them to productive use.    I would first like to highlight for you where states have seen an improvement by Federal agencies in site remediation progress and in maintaining communication with us during the remediation process. This progress is due not only to thoughtful process improvements within the agencies but also in response to your oversight and legislation which passed the House last Congress and a series of GAO reports calling into question whether the Federal Government is moving expeditiously and with sufficient resources to achieve the needed results at these sites.    It is important to know that the creation of state-Federal groups has allowed states and DOD to work towards mutually acceptable cleanup solutions. In addition to these DOD sites, states have played a major role, working with DOE, in the cleanup of heavily contaminated sites affected by the nuclear weapons complex. States work closely with DOE and U.S. EPA to eliminate risks posed by these sites and oversee the cleanup of sites within the complex through Federal facility agreements, permits, and consent orders.    Collaboration between the states and Federal agencies has resulted in significant financial savings from reduced future maintenance costs that can be put towards further cleanup of sites within the complex.    ECOS commends Federal agencies on progress. However, we are concerned that there are instances where the interests of the states are not being considered as thoughtfully as needed. We have three overarching concerns.    First, the state voice in cleanup decision-making should be further strengthened.    Where States have clear regulatory and enforcement authority under legislation, much progress has been made at DOD and DOE sites across the Nation, as Mr. Whitney and Mr. Conger have testified this past week. States are concerned, however, that assertions of sovereign immunity and CERCLA-led agency authority under Executive Order 12580 by Federal agencies have led to inappropriate or inconsistent interpretations of state law and have not supported cleanup to the same standards as private parties. This hampers states' abilities to oversee effective cleanup efforts and be accountable to their citizens.    We encourage Congress to implement legislation that will acknowledge state authority and regulatory responsibility for oversight of removal and cleanup actions at current and formerly owned or operated Federal facilities and fully recognize states' regulatory roles at Federal facilities. There is no reason for Federal agency environmental cleanup activities to be subject to less oversight than private parties.    Secondly, states frequently see the Federal agencies unilaterally changing site cleanup schedules and goals, pushing ultimate completion out by years and sometimes decades and compromising the sites' ultimate usability. Federal agencies effectively change cleanup schedules by failing to seek or allocate sufficient funding for their cleanup commitments.    When a Federal agency unilaterally changes the terms of a cleanup by extending a deadline or changing other goals, the trust-based relationship breaks down, and it can lead to tension, and then it can lead to costly litigation, and that takes away from cleanup efforts. Federal agencies should consult meaningfully with states before seeking to change schedules or cleanup goals.    Third, we are concerned that the available budget determines the remedial approach at some sites, meaning we may not be implementing the most effective and appropriate cleanup approach at a given site. Due to the complexity of the contamination of these sites and the proximity of many of them to communities, states recommend that Federal agencies, in consultation with the states, determine the most appropriate remedy and then work together to pursue sufficient and stable funding solutions to implement that remedy. Transparent statements about the actual funding necessary to achieve results are imperative.    Mr. Chairman and members of the subcommittee, I hope that my testimony today sheds some light both on the progress that has been made as well as additional areas that are in need of attention in the area of Federal facilities. I look forward to answering any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much. Great to have you.    And now I would like to turn to Ms. Bonnie Buthker, chief of Southwest District Office for the Ohio Environmental Protection Agency, on behalf of ASTSWMO.    You are recognized for 5 minutes. Welcome.</t>
   </si>
   <si>
-    <t>Buthker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Buthker. Thank you.    Good afternoon, Chairman Shimkus, Ranking Member Tonko, and members of the subcommittee. I thank you for the opportunity to be here today to represent the Association of State and Territorial Solid Waste Management Officials and provide testimony.    Our membership includes managers from the state environmental protection programs, including those responsible for overseeing the restoration and reuse of current and former Federal facilities. While Ohio EPA is a member of ASTSWMO and I work for Ohio EPA, today I am here representing ASTSWMO.    While states do not assume primary CERCLA authority, we do play a role in implementation. States share a common goal with the Federal Government in ensuring that risks to human health and the environment are appropriately addressed. Like U.S. EPA's in NPL Federal facilities, the states' role is to ensure that remedies implemented will be protective of human health and the environment and in compliance with Federal and state law.    While states try to work in partnership with both the Federal agencies and U.S. EPA, there are times when we disagree on what cleanup standards should be used and what remedies should be implemented. For these partnerships to work, all parties must focus on the technical and practical issues rather than focusing on the legal authorities, including sovereign immunity. Discussions involving legal authorities lead to protracted posturing, no-win situations, and delayed investigation and cleanup of these facilities.    ASTSWMO has consistently supported any mechanism that encourages greater state collaboration with our Federal partners while ensuring that our voice and opinions are not diminished. ASTSWMO and our members actively engage with representatives of the U.S. EPA, DOD, DOE, and Federal land management agencies on national policy issues.    ASTSWMO has had a long history of working collaboratively with DOD that began in the 1990s. In recent years, DOD and the military components have worked closely with ASTSWMO and the states to effectively resolve issues concerning the investigation and remediation of their current and former facilities.    Since 2008, DOD and the military components have formed three different committees with states and ASTSWMO to resolve difficult challenges that were ongoing problems for several years. All three committees provide for collaboration among States and Federal agencies on several challenging cleanup issues, including remediation technologies and interim risk management, which can be especially challenging on property no longer owned by DOD.    ASTSWMO continues to support legislation that clarifies that Federal agencies, like private companies, are subject to appropriate state regulations. While ASTSWMO appreciates the leadership DOD has shown in recent years by focusing on resolving issues with states versus their legal authorities, this has not always been the case.    Throughout the years, states have had several experiences with Federal agencies being unwilling to ensure their investigation and cleanups were done in accordance with state regulations. When states tried to use their authorities to compel Federal agencies to comply with these laws, Federal agencies invoked sovereign immunity in an attempt to prevent state oversight.    Because of this, ASTSWMO has had longstanding policy positions opposing the assertion of sovereign immunity by Federal agencies. These positions have not changed over time, because our members continue to have experiences where Federal agencies use sovereign immunity to avoid compliance with state requirements. These experiences involve all Federal agencies, including DOD, the Department of Interior, and the Department of Agriculture.    For example, in 2013, ASTSWMO did a survey of state and Federal facility managers asking if they recently experienced Federal agencies' invoking sovereign immunity during the application, implementation, and enforcement of CERCLA or state regulations. Of the 19 states that responded, the states listed 12 cases where they had had such experiences.    And though Federal agencies have accomplished a great deal of cleanup at their facilities over the last 20 years, there are still difficult issues left to address, including complicated groundwater contamination, emerging contaminants unique to Federal facilities, and sites contaminated with munitions. Sovereign immunity could still be a barrier to states in ensuring compliance with state requirements and Federal agency decisions concerning such issues.    States need funding so that they can provide necessary resources to be engaged in Federal facility investigations and cleanups. Both DOD and DOE have programs that provide funding to states for their involvement in the investigation and cleanup of their facilities. These programs have provided numerous benefits to both these agencies and the states, including cost savings, reduced litigation, expedited cleanup, and increased public trust in their investigations and cleanups. ASTSWMO, therefore, supports legislation that requires Federal agencies to reimburse states for costs associated with state involvement and oversight.    Thank you for this opportunity to offer testimony, and I would be pleased to answer any questions you may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    And, finally, I will turn to Mr. Michael Houlemard, executive officer of Fort Ord Reuse Authority.    And before I ask him to begin, I think the minority staff is pretty smart or they got lucky. The Monterey area and Fort Ord is my last duty station. So I served there when it was a jewel. And there are great locations there--beautiful golf course, new housing. I was just there a couple years ago--and University of California Monterey, which is very exciting. But obviously, there is a lot of the post that still has issues and challenges.    So we are happy to have you here. Monterey is the second-most-beautiful spot on the face of the Earth, right behind the 15th District of Illinois. And so we are glad to have you here.</t>
   </si>
   <si>
-    <t>Houlemard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Houlemard. Chairman Shimkus, Ranking Member Tonko, all distinguished members of the subcommittee, I want to just thank you for that acknowledgement of how great Monterey is, but it is no better than Rantoul in Illinois.    I would also like to note that, as the executive officer at the Fort Ord Reuse Authority, I have spent quite a bit of my last 20 years spending many hours back here in Washington, D.C., representing communities across the Nation. So I want to thank the committee for its decision that it would include communities as part of the testimony on this very important committee.    I am honored to have spent those last 25 years of my career serving military communities. I served some of that time working with the Association of Defense Communities that has a Defense Communities Caucus support effort. And I know that it is important for all of you to recognize that the communities that have served this Nation by supporting military services have done it in a way that helps the Department of Defense increase its mission-effectiveness.    I also want to take the time to acknowledge our colleagues in U.S. EPA that are tasked with the regulatory oversight that is required to address the many environmental conditions between military communities and their adjacent communities, whether they be active installations or closing or closed installations.    Today I want to focus my comments on the Superfund relationship with military services and defense communities, which is at least an uphill battle given the limited resources and the potential for hazards, both recognized and emerging, to be present.    I also, Mr. Chairman and members of the committee, assert that our defense in part relies on how DOD addresses the sensitive mix of downsizing and the burden of excess infrastructure in the future and its relationship to the ongoing environmental hazards that remain in many of our military installations. Our communities suffer from the many technical, regulatory, processing, resource, and other delays that affect our ability to have access to property in a safe and reliable way.    And many communities across this Nation are provided partial or inadequate information about Federal or other agency contamination that will affect their exposure to potential catastrophic hazards. This is particularly acute with recent past property transfers from the Department of Defense to local communities after downsizing and closing former properties and then abandoning them to local jurisdictions.    Remedial actions are often governed under the resource application decisions by and within the primary polluter's oversight. Those decisions are often determined to be under the regulatory control of the Antideficiency Act, even when DOD has determined them to be exempt from such limitations. In those cases, communities have to wait for the annual funding process, which often causes significant delays in mobilizing and demobilizing. In our case, we are looking at the possibility of another 7 to 10 years before getting full access to the Fort Ord National Monument for an installation that was announced for closure 25 years ago.    Another item is, as a Superfund site due to subsurface remediation, we at the former Fort Ord are ineligible for funding resources and other support under brownfields that would greatly assist us in addressing these aboveground issues. We think that there is a conflict of the regulatory controls here and that Congress should look at that and understand the potential for helping communities. We now have projects that cannot survive even in the great Monterey Bay, with our underlying land value, because we are left with the burden of buildings that are contaminated, with considerable cost putting them under water economically.    Another critical item--and this is not brand-new; I guess you have heard this repeatedly--but the long-term stewardship of properties that is being transferred from Federal hands to local communities is critical. In many, if not nearly every case nationwide, Federal agencies are motivated to complete cleanups that enable property transfers in a way that reduces long-term Federal obligations. And while that may be a great goal for the Federal agencies, it is real important for the communities to be able to have an economic recovery, which demands access to property and ability to manage the long-term stewardship.    This is especially important that that long-term burden be provided in a way that is a part of a remedial action and assessed economically in the remedial action what is being left to local communities.    How such responsibility transference is assessed is crucial under CERCLA. This is especially key as the EPA addresses emerging contaminants such as PFCs that may exist on properties already transferred but yet there is no current way for the Federal agency to return to take care of those problems.    Five on my item list--I just finished the fourth--community voices are often not heard. It is my assertion that communities are often only provided the minimum opportunity to participate in the process, including CERCLA. Superfund regulatory requirements read like a checkoff list to meet certain public comment requirements, but those regulations fall woefully short of meeting the intent for engaging the community in the process.    A true engagement process goes well beyond these citizen participation minimums, community involvement review timelines, or news publication requirements to encourage--that would allow for encouraging active engagement in communities in the forms and methods that solicit input in the way that communities interact.    These technical assistance programs that are currently being funded must be proactive and not responsive to just those few communities that respond. Further, the EPA and other agencies need to help communities build capacity so that they strengthen their local knowledge base and that their comments are of value.    I assert that the community engagement process is a full-contact sport, and it has to be done in the full spectrum of what 21st-century communications are all about.    Ultimately, I would like to add that this is a resource issue, as well. And given the limits of certain Federal support, U.S. EPA must be given the combination of decisionmaking power that allows flexibility between programs and supplemental authority that allows for an increase in the interface with states and local communities.    This collaborative effort would greatly enhance our interactions over the serial reviews that we have today. In fact, we are under a process of collaboration that has been extremely effective at Fort Ord that brings all the parties to the table in a concurrent manner rather than in a serial fashion.    So I assert that we have learned quite a few things: that it is difficult for citizenry to get up to speed with this complex, sophisticated effort; and it is important that we have property transfer and project delivery delays that are collaborative and use 21st-century communications. I ask that we eliminate contravening regulatory issues through focused oversight. And that is essential to community understanding. That also leads to community voices being heard that may not be heard today.    And, finally, we must move to address the long-term stewardship issues that are current a major potential unfunded mandate to local communities and states.    Chairman Shimkus, thank you for the communities' having a voice here at the table.</t>
   </si>
   <si>
@@ -1067,9 +1016,6 @@
   </si>
   <si>
     <t>412487</t>
-  </si>
-  <si>
-    <t>David B. McKinley</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman.    I missed the first portion last week when we began, so perhaps this question has come up, but I am just curious on your perspective, because you are coming at, it looks like, from a different panel than we had before. But I am curious about some of the discussion about the Animus River out in Colorado. And I know it is about 126 miles long, and the EPA caused some problem there. They caused the issue to occur at the Gold King Mine.    Now, two things here with that is, are you hearing, from your perspective, did they solve it in a quick way? Do you think that--again, because we were talking earlier about if it is federally--if the Federal Government caused the problem, they can take a long time to get it resolved, or not, or they can find ways to cut corners, perhaps. I have heard some of this.    Do you think they did a pretty good job out there? Have you heard anything from the states, from other people talking about how they cleaned up the river? Let me just start with that. Any comments about the--you haven't heard? You don't know anything about it?</t>
@@ -1504,11 +1450,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1528,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1556,11 +1498,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1582,11 +1522,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1606,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1634,11 +1570,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1658,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1686,11 +1618,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1710,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1738,11 +1666,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1762,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1790,11 +1714,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1814,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1842,11 +1762,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1866,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1894,11 +1810,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1918,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1946,11 +1858,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1970,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1998,11 +1906,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2022,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2050,11 +1954,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2074,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2102,11 +2002,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2126,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2154,11 +2050,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2178,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2206,11 +2098,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2230,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2258,11 +2146,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2282,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2310,11 +2194,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2334,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2360,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2386,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2412,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2438,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2464,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2490,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2516,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2542,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2568,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2594,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2620,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2646,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2672,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2698,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2724,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2750,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2778,11 +2626,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2802,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2828,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2854,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
-      </c>
-      <c r="G54" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2882,11 +2722,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2906,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2932,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2958,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
         <v>72</v>
-      </c>
-      <c r="G58" t="s">
-        <v>73</v>
-      </c>
-      <c r="H58" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2984,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3010,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3036,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3062,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3088,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3114,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
-      </c>
-      <c r="G64" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3140,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3166,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
-      </c>
-      <c r="G66" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3192,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3218,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
-      </c>
-      <c r="G68" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3244,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>23</v>
-      </c>
-      <c r="G69" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3270,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
-      </c>
-      <c r="G70" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3296,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3322,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
-      </c>
-      <c r="G72" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3350,11 +3154,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3374,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3400,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>23</v>
-      </c>
-      <c r="G75" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3426,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3452,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3478,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3504,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
-      </c>
-      <c r="G79" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3530,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3556,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3582,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3608,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3634,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3660,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3686,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3712,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3738,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3764,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>23</v>
-      </c>
-      <c r="G89" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3790,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3816,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
-      </c>
-      <c r="G91" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3842,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3868,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3894,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3922,11 +3682,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3946,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
-      </c>
-      <c r="G96" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3972,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>23</v>
-      </c>
-      <c r="G97" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3998,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>118</v>
-      </c>
-      <c r="G98" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4024,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4050,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
-      </c>
-      <c r="G100" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4076,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4102,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
-      </c>
-      <c r="G102" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4128,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4154,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
-      </c>
-      <c r="G104" t="s">
+        <v>110</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
         <v>119</v>
-      </c>
-      <c r="H104" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4180,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4206,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>118</v>
-      </c>
-      <c r="G106" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4232,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>23</v>
-      </c>
-      <c r="G107" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4258,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>118</v>
-      </c>
-      <c r="G108" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4284,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4310,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>118</v>
-      </c>
-      <c r="G110" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4336,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4362,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>118</v>
-      </c>
-      <c r="G112" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4388,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4414,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>118</v>
-      </c>
-      <c r="G114" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4440,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4466,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>118</v>
-      </c>
-      <c r="G116" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4492,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4518,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>118</v>
-      </c>
-      <c r="G118" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4546,11 +4258,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4570,13 +4280,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>144</v>
-      </c>
-      <c r="G120" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4596,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4622,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>144</v>
-      </c>
-      <c r="G122" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4648,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4674,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>144</v>
-      </c>
-      <c r="G124" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4700,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4726,13 +4424,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>144</v>
-      </c>
-      <c r="G126" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4752,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4778,13 +4472,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
+        <v>135</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
         <v>144</v>
-      </c>
-      <c r="G128" t="s">
-        <v>145</v>
-      </c>
-      <c r="H128" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4804,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4830,13 +4520,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>144</v>
-      </c>
-      <c r="G130" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4856,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4882,13 +4568,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>144</v>
-      </c>
-      <c r="G132" t="s">
-        <v>145</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4908,13 +4592,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4936,11 +4618,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4960,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>161</v>
-      </c>
-      <c r="G135" t="s">
-        <v>162</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4986,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5012,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>161</v>
-      </c>
-      <c r="G137" t="s">
-        <v>162</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5038,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5064,13 +4736,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>161</v>
-      </c>
-      <c r="G139" t="s">
-        <v>162</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5092,11 +4762,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5116,13 +4784,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>161</v>
-      </c>
-      <c r="G141" t="s">
-        <v>162</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5144,11 +4810,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5168,13 +4832,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>161</v>
-      </c>
-      <c r="G143" t="s">
-        <v>162</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5196,11 +4858,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5220,13 +4880,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>173</v>
-      </c>
-      <c r="G145" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5246,13 +4904,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5272,13 +4928,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>173</v>
-      </c>
-      <c r="G147" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5298,13 +4952,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5324,13 +4976,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>173</v>
-      </c>
-      <c r="G149" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5350,13 +5000,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5376,13 +5024,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>173</v>
-      </c>
-      <c r="G151" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5402,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5428,13 +5072,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>173</v>
-      </c>
-      <c r="G153" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5454,13 +5096,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5480,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>173</v>
-      </c>
-      <c r="G155" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5506,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
-      </c>
-      <c r="G156" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5532,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
+        <v>162</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
         <v>173</v>
-      </c>
-      <c r="G157" t="s">
-        <v>174</v>
-      </c>
-      <c r="H157" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5558,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5584,13 +5216,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>173</v>
-      </c>
-      <c r="G159" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5610,13 +5240,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5636,13 +5264,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>173</v>
-      </c>
-      <c r="G161" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5662,13 +5288,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5688,13 +5312,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>173</v>
-      </c>
-      <c r="G163" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5714,13 +5336,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5740,13 +5360,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>173</v>
-      </c>
-      <c r="G165" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5766,13 +5384,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5792,13 +5408,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>173</v>
-      </c>
-      <c r="G167" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5818,13 +5432,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>23</v>
-      </c>
-      <c r="G168" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5844,13 +5456,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>173</v>
-      </c>
-      <c r="G169" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5870,13 +5480,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>23</v>
-      </c>
-      <c r="G170" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5896,13 +5504,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>173</v>
-      </c>
-      <c r="G171" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5922,13 +5528,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>23</v>
-      </c>
-      <c r="G172" t="s">
-        <v>33</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5948,13 +5552,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>173</v>
-      </c>
-      <c r="G173" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5974,13 +5576,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>23</v>
-      </c>
-      <c r="G174" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6000,13 +5600,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>173</v>
-      </c>
-      <c r="G175" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6026,13 +5624,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>23</v>
-      </c>
-      <c r="G176" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6052,13 +5648,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>173</v>
-      </c>
-      <c r="G177" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6080,11 +5674,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6104,13 +5696,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>173</v>
-      </c>
-      <c r="G179" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6132,11 +5722,9 @@
       <c r="F180" t="s">
         <v>11</v>
       </c>
-      <c r="G180" t="s">
-        <v>12</v>
-      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6156,13 +5744,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>173</v>
-      </c>
-      <c r="G181" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6184,11 +5770,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6208,13 +5792,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>173</v>
-      </c>
-      <c r="G183" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6236,11 +5818,9 @@
       <c r="F184" t="s">
         <v>11</v>
       </c>
-      <c r="G184" t="s">
-        <v>12</v>
-      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6260,13 +5840,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>173</v>
-      </c>
-      <c r="G185" t="s">
-        <v>174</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6288,11 +5866,9 @@
       <c r="F186" t="s">
         <v>11</v>
       </c>
-      <c r="G186" t="s">
-        <v>12</v>
-      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6312,13 +5888,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>213</v>
-      </c>
-      <c r="G187" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6338,13 +5912,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>23</v>
-      </c>
-      <c r="G188" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6364,13 +5936,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>213</v>
-      </c>
-      <c r="G189" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6390,13 +5960,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>23</v>
-      </c>
-      <c r="G190" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6416,13 +5984,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>213</v>
-      </c>
-      <c r="G191" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6442,13 +6008,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>23</v>
-      </c>
-      <c r="G192" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6468,13 +6032,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>213</v>
-      </c>
-      <c r="G193" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6494,13 +6056,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>23</v>
-      </c>
-      <c r="G194" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6520,13 +6080,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>213</v>
-      </c>
-      <c r="G195" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6546,13 +6104,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>23</v>
-      </c>
-      <c r="G196" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6572,13 +6128,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>213</v>
-      </c>
-      <c r="G197" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6598,13 +6152,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>23</v>
-      </c>
-      <c r="G198" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6624,13 +6176,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>213</v>
-      </c>
-      <c r="G199" t="s">
+        <v>201</v>
+      </c>
+      <c r="G199" t="s"/>
+      <c r="H199" t="s">
         <v>214</v>
-      </c>
-      <c r="H199" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6650,13 +6200,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>23</v>
-      </c>
-      <c r="G200" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6676,13 +6224,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>213</v>
-      </c>
-      <c r="G201" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6702,13 +6248,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>23</v>
-      </c>
-      <c r="G202" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6728,13 +6272,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>213</v>
-      </c>
-      <c r="G203" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6754,13 +6296,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>23</v>
-      </c>
-      <c r="G204" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6780,13 +6320,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>213</v>
-      </c>
-      <c r="G205" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6806,13 +6344,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>23</v>
-      </c>
-      <c r="G206" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6832,13 +6368,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>213</v>
-      </c>
-      <c r="G207" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6858,13 +6392,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>23</v>
-      </c>
-      <c r="G208" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6884,13 +6416,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>213</v>
-      </c>
-      <c r="G209" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6910,13 +6440,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>23</v>
-      </c>
-      <c r="G210" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6936,13 +6464,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>213</v>
-      </c>
-      <c r="G211" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6962,13 +6488,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>23</v>
-      </c>
-      <c r="G212" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6988,13 +6512,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>213</v>
-      </c>
-      <c r="G213" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7014,13 +6536,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>23</v>
-      </c>
-      <c r="G214" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7040,13 +6560,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>213</v>
-      </c>
-      <c r="G215" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7066,13 +6584,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>23</v>
-      </c>
-      <c r="G216" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7092,13 +6608,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>213</v>
-      </c>
-      <c r="G217" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7118,13 +6632,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>23</v>
-      </c>
-      <c r="G218" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7144,13 +6656,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>213</v>
-      </c>
-      <c r="G219" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7170,13 +6680,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>23</v>
-      </c>
-      <c r="G220" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7196,13 +6704,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>213</v>
-      </c>
-      <c r="G221" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7224,11 +6730,9 @@
       <c r="F222" t="s">
         <v>11</v>
       </c>
-      <c r="G222" t="s">
-        <v>12</v>
-      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7248,13 +6752,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>250</v>
-      </c>
-      <c r="G223" t="s">
-        <v>251</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7274,13 +6776,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>23</v>
-      </c>
-      <c r="G224" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7300,13 +6800,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>250</v>
-      </c>
-      <c r="G225" t="s">
-        <v>251</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7326,13 +6824,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>23</v>
-      </c>
-      <c r="G226" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7352,13 +6848,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>250</v>
-      </c>
-      <c r="G227" t="s">
-        <v>251</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7378,13 +6872,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>23</v>
-      </c>
-      <c r="G228" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7404,13 +6896,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>250</v>
-      </c>
-      <c r="G229" t="s">
-        <v>251</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7430,13 +6920,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>23</v>
-      </c>
-      <c r="G230" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7456,13 +6944,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>250</v>
-      </c>
-      <c r="G231" t="s">
-        <v>251</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7482,13 +6968,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>23</v>
-      </c>
-      <c r="G232" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7508,13 +6992,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>250</v>
-      </c>
-      <c r="G233" t="s">
-        <v>251</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7534,13 +7016,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>23</v>
-      </c>
-      <c r="G234" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7560,13 +7040,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
+        <v>237</v>
+      </c>
+      <c r="G235" t="s"/>
+      <c r="H235" t="s">
         <v>250</v>
-      </c>
-      <c r="G235" t="s">
-        <v>251</v>
-      </c>
-      <c r="H235" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7586,13 +7064,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>23</v>
-      </c>
-      <c r="G236" t="s">
-        <v>30</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7612,13 +7088,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>23</v>
-      </c>
-      <c r="G237" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7638,13 +7112,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>250</v>
-      </c>
-      <c r="G238" t="s">
-        <v>251</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7664,13 +7136,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>23</v>
-      </c>
-      <c r="G239" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7690,13 +7160,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>250</v>
-      </c>
-      <c r="G240" t="s">
-        <v>251</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7716,13 +7184,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>23</v>
-      </c>
-      <c r="G241" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7742,13 +7208,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>250</v>
-      </c>
-      <c r="G242" t="s">
-        <v>251</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7770,11 +7234,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7794,13 +7256,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>23</v>
-      </c>
-      <c r="G244" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7820,13 +7280,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>23</v>
-      </c>
-      <c r="G245" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7846,13 +7304,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>23</v>
-      </c>
-      <c r="G246" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7874,11 +7330,9 @@
       <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
-        <v>12</v>
-      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7900,11 +7354,9 @@
       <c r="F248" t="s">
         <v>11</v>
       </c>
-      <c r="G248" t="s">
-        <v>12</v>
-      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7924,13 +7376,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>23</v>
-      </c>
-      <c r="G249" t="s">
-        <v>277</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7952,11 +7402,9 @@
       <c r="F250" t="s">
         <v>11</v>
       </c>
-      <c r="G250" t="s">
-        <v>12</v>
-      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7976,13 +7424,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>23</v>
-      </c>
-      <c r="G251" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8004,11 +7450,9 @@
       <c r="F252" t="s">
         <v>11</v>
       </c>
-      <c r="G252" t="s">
-        <v>12</v>
-      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8028,13 +7472,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>23</v>
-      </c>
-      <c r="G253" t="s">
-        <v>283</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8056,11 +7498,9 @@
       <c r="F254" t="s">
         <v>11</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
-      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8080,13 +7520,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>23</v>
-      </c>
-      <c r="G255" t="s">
-        <v>277</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8108,11 +7546,9 @@
       <c r="F256" t="s">
         <v>11</v>
       </c>
-      <c r="G256" t="s">
-        <v>12</v>
-      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8132,13 +7568,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>23</v>
-      </c>
-      <c r="G257" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8160,11 +7594,9 @@
       <c r="F258" t="s">
         <v>11</v>
       </c>
-      <c r="G258" t="s">
-        <v>12</v>
-      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8184,13 +7616,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>23</v>
-      </c>
-      <c r="G259" t="s">
-        <v>283</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8212,11 +7642,9 @@
       <c r="F260" t="s">
         <v>11</v>
       </c>
-      <c r="G260" t="s">
-        <v>12</v>
-      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8236,13 +7664,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>23</v>
-      </c>
-      <c r="G261" t="s">
-        <v>277</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8264,11 +7690,9 @@
       <c r="F262" t="s">
         <v>11</v>
       </c>
-      <c r="G262" t="s">
-        <v>12</v>
-      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8288,13 +7712,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>23</v>
-      </c>
-      <c r="G263" t="s">
+        <v>20</v>
+      </c>
+      <c r="G263" t="s"/>
+      <c r="H263" t="s">
         <v>277</v>
-      </c>
-      <c r="H263" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8316,11 +7738,9 @@
       <c r="F264" t="s">
         <v>11</v>
       </c>
-      <c r="G264" t="s">
-        <v>12</v>
-      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8340,13 +7760,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>23</v>
-      </c>
-      <c r="G265" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8368,11 +7786,9 @@
       <c r="F266" t="s">
         <v>11</v>
       </c>
-      <c r="G266" t="s">
-        <v>12</v>
-      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8392,13 +7808,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>23</v>
-      </c>
-      <c r="G267" t="s">
-        <v>283</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8420,11 +7834,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>12</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8444,13 +7856,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>14</v>
-      </c>
-      <c r="G269" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8470,13 +7880,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>23</v>
-      </c>
-      <c r="G270" t="s">
-        <v>277</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8496,13 +7904,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>14</v>
-      </c>
-      <c r="G271" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8522,13 +7928,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>23</v>
-      </c>
-      <c r="G272" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8548,13 +7952,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>14</v>
-      </c>
-      <c r="G273" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8574,13 +7976,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>23</v>
-      </c>
-      <c r="G274" t="s">
-        <v>283</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8600,13 +8000,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8626,13 +8024,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>23</v>
-      </c>
-      <c r="G276" t="s">
-        <v>283</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8652,13 +8048,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>14</v>
-      </c>
-      <c r="G277" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8678,13 +8072,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>23</v>
-      </c>
-      <c r="G278" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8704,13 +8096,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>14</v>
-      </c>
-      <c r="G279" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8730,13 +8120,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>23</v>
-      </c>
-      <c r="G280" t="s">
-        <v>277</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8756,13 +8144,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>14</v>
-      </c>
-      <c r="G281" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8784,11 +8170,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8808,13 +8192,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>72</v>
-      </c>
-      <c r="G283" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8834,13 +8216,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>23</v>
-      </c>
-      <c r="G284" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8860,13 +8240,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>72</v>
-      </c>
-      <c r="G285" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8886,13 +8264,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>23</v>
-      </c>
-      <c r="G286" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8912,13 +8288,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>72</v>
-      </c>
-      <c r="G287" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8938,13 +8312,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>23</v>
-      </c>
-      <c r="G288" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8964,13 +8336,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>72</v>
-      </c>
-      <c r="G289" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8990,13 +8360,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>23</v>
-      </c>
-      <c r="G290" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9016,13 +8384,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>72</v>
-      </c>
-      <c r="G291" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9042,13 +8408,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>23</v>
-      </c>
-      <c r="G292" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9068,13 +8432,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>72</v>
-      </c>
-      <c r="G293" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9096,11 +8458,9 @@
       <c r="F294" t="s">
         <v>11</v>
       </c>
-      <c r="G294" t="s">
-        <v>12</v>
-      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9120,13 +8480,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>19</v>
-      </c>
-      <c r="G295" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9146,13 +8504,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>23</v>
-      </c>
-      <c r="G296" t="s">
-        <v>283</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9172,13 +8528,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>19</v>
-      </c>
-      <c r="G297" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9198,13 +8552,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>23</v>
-      </c>
-      <c r="G298" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9224,13 +8576,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>19</v>
-      </c>
-      <c r="G299" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9250,13 +8600,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>23</v>
-      </c>
-      <c r="G300" t="s">
-        <v>277</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9276,13 +8624,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>19</v>
-      </c>
-      <c r="G301" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9302,13 +8648,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>23</v>
-      </c>
-      <c r="G302" t="s">
-        <v>283</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9328,13 +8672,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>19</v>
-      </c>
-      <c r="G303" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9356,11 +8698,9 @@
       <c r="F304" t="s">
         <v>11</v>
       </c>
-      <c r="G304" t="s">
-        <v>12</v>
-      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9380,13 +8720,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>118</v>
-      </c>
-      <c r="G305" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9406,13 +8744,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>23</v>
-      </c>
-      <c r="G306" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9432,13 +8768,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>118</v>
-      </c>
-      <c r="G307" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9458,13 +8792,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>23</v>
-      </c>
-      <c r="G308" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9484,13 +8816,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>118</v>
-      </c>
-      <c r="G309" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9510,13 +8840,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>23</v>
-      </c>
-      <c r="G310" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9536,13 +8864,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>118</v>
-      </c>
-      <c r="G311" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9562,13 +8888,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>23</v>
-      </c>
-      <c r="G312" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9588,13 +8912,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>118</v>
-      </c>
-      <c r="G313" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9614,13 +8936,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>23</v>
-      </c>
-      <c r="G314" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9640,13 +8960,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>118</v>
-      </c>
-      <c r="G315" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9666,13 +8984,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>23</v>
-      </c>
-      <c r="G316" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9692,13 +9008,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>118</v>
-      </c>
-      <c r="G317" t="s">
-        <v>119</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>348</v>
+        <v>331</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9720,11 +9034,9 @@
       <c r="F318" t="s">
         <v>11</v>
       </c>
-      <c r="G318" t="s">
-        <v>12</v>
-      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9744,13 +9056,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>350</v>
-      </c>
-      <c r="G319" t="s">
-        <v>351</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9770,13 +9080,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>23</v>
-      </c>
-      <c r="G320" t="s">
-        <v>277</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9796,13 +9104,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>350</v>
-      </c>
-      <c r="G321" t="s">
-        <v>351</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -9822,13 +9128,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>23</v>
-      </c>
-      <c r="G322" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9848,13 +9152,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>350</v>
-      </c>
-      <c r="G323" t="s">
-        <v>351</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9874,13 +9176,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>23</v>
-      </c>
-      <c r="G324" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -9900,13 +9200,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>350</v>
-      </c>
-      <c r="G325" t="s">
-        <v>351</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9926,13 +9224,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>23</v>
-      </c>
-      <c r="G326" t="s">
-        <v>280</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -9952,13 +9248,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>350</v>
-      </c>
-      <c r="G327" t="s">
-        <v>351</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9978,13 +9272,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>23</v>
-      </c>
-      <c r="G328" t="s">
-        <v>283</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10004,13 +9296,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>350</v>
-      </c>
-      <c r="G329" t="s">
-        <v>351</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10032,11 +9322,9 @@
       <c r="F330" t="s">
         <v>11</v>
       </c>
-      <c r="G330" t="s">
-        <v>12</v>
-      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
